--- a/Defected_File.xlsx
+++ b/Defected_File.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Assignee </t>
+          <t>Assignee</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
